--- a/201707_HFCS_citations_selected.xlsx
+++ b/201707_HFCS_citations_selected.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/HFCSProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Selected_abstracts" sheetId="3" r:id="rId1"/>
     <sheet name="Selected" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8185,11 +8198,6 @@
   </si>
   <si>
     <t>The recently published Household Finance and Consumption Survey has revealed large differences in wealth inequality between the countries of the Euro area. We find a strong negative correlation between wealth inequality and homeownership rates across countries. We use two decomposition methods to shed more light on this correlation. First, a Gini decomposition by homeownership status shows that the negative relationship is mostly driven by large between-group inequality across owners and renters. Second, to control for other observables, we conduct a detailed counterfactual decomposition of cross-country inequality differences. We confirm the major role for homeownership rates in accounting for the wealth inequality differences. Our analysis suggests that the cross-country variation is mostly driven by differences in the savings behavior of households in the bottom half of the wealth distribution and that those differences in savings are to a large extent channeled through housing wealth.</t>
-  </si>
-  <si>
-    <t>We study saving motives and household saving behavior in fifteen euro-area countries using the first wave of the Household Finance and Consumption Survey that covers the years 2008–11. We find that precautionary months. The analysis by country reveals some degree of heterogeneity for this measure of self-assessed household saving:
-the countries that were hit most severely by the financial crisis
-display higher financial stress.saving is the most commonly reported motive in all countries, followed by saving for old-age provision. Preferences for other motives are then rather heterogeneous across countries. Saving for home purchase and precautionary saving are monotonically decreasingly important with age. Variables related to the structure of the tax system and to the generosity of the social security and welfare systems are important determinants of household saving. As for actual saving behavior, we find that most households in the euro area perceived their expenses over the last twelve months to be about the same as expenses in a “normal” year in the past and about the same as income over the last twelve</t>
   </si>
   <si>
     <t>Following the Great Recession, many European countries implemented fiscal consolidation policies aimed at reducing government debt. Using three independent data sources and three different empirical approaches, we document a strong positive relationship between higher income inequality and stronger recessive impacts of fiscal consolidation programs across time and place. To explain this finding, we develop a life-cycle, overlapping generations economy with uninsurable labor market risk. We calibrate our model to match key characteristics of a number of European economies, including the distribution of wages and wealth, social security, taxes and debt, and study the effects of fiscal consolidation programs. We find that higher income risk induces precautionary savings behavior, which decreases the proportion of credit-constrained agents in the economy. Credit-constrained agents have less elastic labor supply responses to fiscal consolidation achieved through either tax hikes or public spending cuts, and this explains the relationship between income inequality and the impact of fiscal consolidation programs. Our model produces a cross-country correlation between inequality and the fiscal consolidation multipliers, which is quite similar to that in the data.</t>
@@ -8538,6 +8546,9 @@
       </rPr>
       <t> are negligible. The results also suggest that savers are not hurt, as the decrease in the remuneration of assets is compensated by support to labour income and by capital gains.</t>
     </r>
+  </si>
+  <si>
+    <t>We study saving motives and household saving behavior in fifteen euro-area countries using the first wave of the Household Finance and Consumption Survey that covers the years 2008-11. We find that precautionary saving is the most commonly reported motive in all countries, followed by saving for old-age provision. Preferences for other motives are then rather heterogeneous across countries. Saving for home purchase and precautionary saving are monotonically decreasingly important with age. Variables related to the structure of the tax system and to the generosity of the social security and welfare systems are important determinants of household saving. As for actual saving behavior, we find that most households in the euro area perceived their expenses over the last twelve months to be about the same as expenses in a "normal" year in the past and about the same as income over the last twelve months. The analysis by country reveals some degree of heterogeneity for this measure of self-assessed household saving: the countries that were hit most severely by the financial crisis display higher financial stress.</t>
   </si>
 </sst>
 </file>
@@ -8654,22 +8665,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8795,12 +8806,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -8830,12 +8841,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -9042,22 +9053,22 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="4" width="83" customWidth="1"/>
-    <col min="5" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="14"/>
+    <col min="5" max="24" width="9.1640625" customWidth="1"/>
+    <col min="25" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -9131,7 +9142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>260</v>
       </c>
@@ -9178,7 +9189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>221</v>
       </c>
@@ -9228,7 +9239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>145</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="30" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>118</v>
       </c>
@@ -9328,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>117</v>
       </c>
@@ -9378,7 +9389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>92</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v>2490</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="E7" s="30">
         <v>2014</v>
@@ -9428,7 +9439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>92</v>
       </c>
@@ -9478,7 +9489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>91</v>
       </c>
@@ -9525,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="30" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="30" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>60</v>
       </c>
@@ -9536,7 +9547,7 @@
         <v>356</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="E10" s="30">
         <v>2016</v>
@@ -9575,7 +9586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>59</v>
       </c>
@@ -9625,7 +9636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="30" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>57</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>47</v>
       </c>
@@ -9722,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="30" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>46</v>
       </c>
@@ -9733,7 +9744,7 @@
         <v>1537</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="E14" s="30">
         <v>2017</v>
@@ -9772,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>46</v>
       </c>
@@ -9822,7 +9833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="30" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>40</v>
       </c>
@@ -9869,7 +9880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="30" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>39</v>
       </c>
@@ -9880,7 +9891,7 @@
         <v>803</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="E17" s="30">
         <v>2017</v>
@@ -9919,7 +9930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>38</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="30" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="30" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>36</v>
       </c>
@@ -10016,7 +10027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>35</v>
       </c>
@@ -10027,7 +10038,7 @@
         <v>2204</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E20" s="30">
         <v>2018</v>
@@ -10066,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>34</v>
       </c>
@@ -10116,7 +10127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="30" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>22</v>
       </c>
@@ -10163,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="30" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="30" customFormat="1" ht="270" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -10210,7 +10221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>19</v>
       </c>
@@ -10260,7 +10271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="30" customFormat="1" ht="150" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>19</v>
       </c>
@@ -10307,7 +10318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="30" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>17</v>
       </c>
@@ -10354,7 +10365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="30" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="30" customFormat="1" ht="150" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>11</v>
       </c>
@@ -10401,7 +10412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="30" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="30" customFormat="1" ht="165" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>10</v>
       </c>
@@ -10412,7 +10423,7 @@
         <v>2217</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>2723</v>
+        <v>2735</v>
       </c>
       <c r="E28" s="30">
         <v>2016</v>
@@ -10454,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="33" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A29" s="33">
         <v>8</v>
       </c>
@@ -10465,7 +10476,7 @@
         <v>2118</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E29" s="33">
         <v>2018</v>
@@ -10504,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="33" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A30" s="33">
         <v>7</v>
       </c>
@@ -10515,7 +10526,7 @@
         <v>490</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="E30" s="33">
         <v>2016</v>
@@ -10557,7 +10568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="33" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>6</v>
       </c>
@@ -10568,7 +10579,7 @@
         <v>1735</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E31" s="33">
         <v>2016</v>
@@ -10604,7 +10615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.2">
       <c r="A32" s="33">
         <v>4</v>
       </c>
@@ -10615,7 +10626,7 @@
         <v>545</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="E32" s="33">
         <v>2018</v>
@@ -10651,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>4</v>
       </c>
@@ -10662,7 +10673,7 @@
         <v>1045</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E33" s="33">
         <v>2016</v>
@@ -10704,7 +10715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>0</v>
       </c>
@@ -10715,7 +10726,7 @@
         <v>2443</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="E34" s="33">
         <v>2018</v>
@@ -10748,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>0</v>
       </c>
@@ -10759,7 +10770,7 @@
         <v>1369</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="E35" s="33">
         <v>2019</v>
@@ -10792,11 +10803,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:24" s="24" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H35" r:id="rId1"/>
@@ -10817,16 +10828,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="9.1640625" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10897,7 +10908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>260</v>
       </c>
@@ -10950,7 +10961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>221</v>
       </c>
@@ -11005,7 +11016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>145</v>
       </c>
@@ -11060,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>118</v>
       </c>
@@ -11115,7 +11126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>117</v>
       </c>
@@ -11170,7 +11181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>92</v>
       </c>
@@ -11225,7 +11236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>92</v>
       </c>
@@ -11280,7 +11291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>91</v>
       </c>
@@ -11333,7 +11344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>60</v>
       </c>
@@ -11388,7 +11399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>59</v>
       </c>
@@ -11443,7 +11454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>57</v>
       </c>
@@ -11496,7 +11507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>57</v>
       </c>
@@ -11551,7 +11562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>55</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>55</v>
       </c>
@@ -11661,7 +11672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>50</v>
       </c>
@@ -11714,7 +11725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>49</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>47</v>
       </c>
@@ -11824,7 +11835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>46</v>
       </c>
@@ -11879,7 +11890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>46</v>
       </c>
@@ -11934,7 +11945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>46</v>
       </c>
@@ -11991,7 +12002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>40</v>
       </c>
@@ -12044,7 +12055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>39</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>38</v>
       </c>
@@ -12152,7 +12163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>38</v>
       </c>
@@ -12207,7 +12218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>36</v>
       </c>
@@ -12262,7 +12273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>36</v>
       </c>
@@ -12315,7 +12326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>35</v>
       </c>
@@ -12370,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>34</v>
       </c>
@@ -12425,7 +12436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>33</v>
       </c>
@@ -12480,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -12533,7 +12544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>26</v>
       </c>
@@ -12590,7 +12601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>26</v>
       </c>
@@ -12647,7 +12658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>25</v>
       </c>
@@ -12700,7 +12711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>23</v>
       </c>
@@ -12755,7 +12766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>22</v>
       </c>
@@ -12808,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>22</v>
       </c>
@@ -12861,7 +12872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>22</v>
       </c>
@@ -12914,7 +12925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>21</v>
       </c>
@@ -12969,7 +12980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>21</v>
       </c>
@@ -13026,7 +13037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>21</v>
       </c>
@@ -13079,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>20</v>
       </c>
@@ -13132,7 +13143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>20</v>
       </c>
@@ -13185,7 +13196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>20</v>
       </c>
@@ -13238,7 +13249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>19</v>
       </c>
@@ -13293,7 +13304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>19</v>
       </c>
@@ -13346,7 +13357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>19</v>
       </c>
@@ -13401,7 +13412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>19</v>
       </c>
@@ -13454,7 +13465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>19</v>
       </c>
@@ -13509,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>19</v>
       </c>
@@ -13564,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>19</v>
       </c>
@@ -13617,7 +13628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>18</v>
       </c>
@@ -13672,7 +13683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>18</v>
       </c>
@@ -13729,7 +13740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>17</v>
       </c>
@@ -13786,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>17</v>
       </c>
@@ -13839,7 +13850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>17</v>
       </c>
@@ -13896,7 +13907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>16</v>
       </c>
@@ -13951,7 +13962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>16</v>
       </c>
@@ -14006,7 +14017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>16</v>
       </c>
@@ -14059,7 +14070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>16</v>
       </c>
@@ -14114,7 +14125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>15</v>
       </c>
@@ -14171,7 +14182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>15</v>
       </c>
@@ -14226,7 +14237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>15</v>
       </c>
@@ -14281,7 +14292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>15</v>
       </c>
@@ -14336,7 +14347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>14</v>
       </c>
@@ -14389,7 +14400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>14</v>
       </c>
@@ -14444,7 +14455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>14</v>
       </c>
@@ -14499,7 +14510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>14</v>
       </c>
@@ -14552,7 +14563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>14</v>
       </c>
@@ -14607,7 +14618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>14</v>
       </c>
@@ -14662,7 +14673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>13</v>
       </c>
@@ -14717,7 +14728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>13</v>
       </c>
@@ -14774,7 +14785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>13</v>
       </c>
@@ -14827,7 +14838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>13</v>
       </c>
@@ -14880,7 +14891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>13</v>
       </c>
@@ -14937,7 +14948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>13</v>
       </c>
@@ -14990,7 +15001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>13</v>
       </c>
@@ -15045,7 +15056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>13</v>
       </c>
@@ -15102,7 +15113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>12</v>
       </c>
@@ -15159,7 +15170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>12</v>
       </c>
@@ -15214,7 +15225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>12</v>
       </c>
@@ -15271,7 +15282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>12</v>
       </c>
@@ -15326,7 +15337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>11</v>
       </c>
@@ -15381,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>11</v>
       </c>
@@ -15436,7 +15447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>11</v>
       </c>
@@ -15491,7 +15502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>11</v>
       </c>
@@ -15548,7 +15559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>11</v>
       </c>
@@ -15601,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>11</v>
       </c>
@@ -15654,7 +15665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>11</v>
       </c>
@@ -15707,7 +15718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>10</v>
       </c>
@@ -15762,7 +15773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>10</v>
       </c>
@@ -15819,7 +15830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>10</v>
       </c>
@@ -15874,7 +15885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>10</v>
       </c>
@@ -15931,7 +15942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>10</v>
       </c>
@@ -15988,7 +15999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>10</v>
       </c>
@@ -16041,7 +16052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>10</v>
       </c>
@@ -16098,7 +16109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>10</v>
       </c>
@@ -16151,7 +16162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>10</v>
       </c>
@@ -16206,7 +16217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" s="18" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <v>10</v>
       </c>
@@ -16253,11 +16264,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J100" s="22"/>
       <c r="T100" s="23"/>
     </row>
-    <row r="101" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24">
         <v>9</v>
       </c>
@@ -16301,7 +16312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24">
         <v>8</v>
       </c>
@@ -16348,7 +16359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24">
         <v>8</v>
       </c>
@@ -16398,7 +16409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24">
         <v>7</v>
       </c>
@@ -16448,7 +16459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24">
         <v>7</v>
       </c>
@@ -16492,7 +16503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="24">
         <v>7</v>
       </c>
@@ -16542,7 +16553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24">
         <v>7</v>
       </c>
@@ -16592,7 +16603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24">
         <v>6</v>
       </c>
@@ -16636,7 +16647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24">
         <v>4</v>
       </c>
@@ -16680,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24">
         <v>4</v>
       </c>
@@ -16730,7 +16741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24">
         <v>1</v>
       </c>
@@ -16774,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="24">
         <v>0</v>
       </c>
@@ -16815,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24">
         <v>0</v>
       </c>
@@ -16856,11 +16867,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G113" r:id="rId1"/>
@@ -16880,16 +16891,16 @@
       <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="156.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="156.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="9.1640625" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16960,7 +16971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>260</v>
       </c>
@@ -17004,7 +17015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>221</v>
       </c>
@@ -17051,7 +17062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>145</v>
       </c>
@@ -17098,7 +17109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>136</v>
       </c>
@@ -17153,7 +17164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>118</v>
       </c>
@@ -17200,7 +17211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>117</v>
       </c>
@@ -17255,7 +17266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>112</v>
       </c>
@@ -17310,7 +17321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>92</v>
       </c>
@@ -17357,7 +17368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>92</v>
       </c>
@@ -17412,7 +17423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>91</v>
       </c>
@@ -17456,7 +17467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>60</v>
       </c>
@@ -17503,7 +17514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>59</v>
       </c>
@@ -17550,7 +17561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>57</v>
       </c>
@@ -17594,7 +17605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>57</v>
       </c>
@@ -17649,7 +17660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>55</v>
       </c>
@@ -17699,7 +17710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>55</v>
       </c>
@@ -17743,7 +17754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>53</v>
       </c>
@@ -17798,7 +17809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>51</v>
       </c>
@@ -17853,7 +17864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>50</v>
       </c>
@@ -17906,7 +17917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>49</v>
       </c>
@@ -17953,7 +17964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>49</v>
       </c>
@@ -18008,7 +18019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>47</v>
       </c>
@@ -18055,7 +18066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>46</v>
       </c>
@@ -18102,7 +18113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>46</v>
       </c>
@@ -18149,7 +18160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>46</v>
       </c>
@@ -18206,7 +18217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>40</v>
       </c>
@@ -18261,7 +18272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>40</v>
       </c>
@@ -18305,7 +18316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>39</v>
       </c>
@@ -18352,7 +18363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>38</v>
       </c>
@@ -18396,7 +18407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>38</v>
       </c>
@@ -18443,7 +18454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>36</v>
       </c>
@@ -18490,7 +18501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36</v>
       </c>
@@ -18534,7 +18545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35</v>
       </c>
@@ -18581,7 +18592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18628,7 +18639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -18683,7 +18694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
@@ -18730,7 +18741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>29</v>
       </c>
@@ -18774,7 +18785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>26</v>
       </c>
@@ -18824,7 +18835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>26</v>
       </c>
@@ -18874,7 +18885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>25</v>
       </c>
@@ -18918,7 +18929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>23</v>
       </c>
@@ -18965,7 +18976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>22</v>
       </c>
@@ -19009,7 +19020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
@@ -19053,7 +19064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
@@ -19097,7 +19108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>21</v>
       </c>
@@ -19152,7 +19163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>21</v>
       </c>
@@ -19207,7 +19218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>21</v>
       </c>
@@ -19257,7 +19268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>21</v>
       </c>
@@ -19310,7 +19321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20</v>
       </c>
@@ -19354,7 +19365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20</v>
       </c>
@@ -19398,7 +19409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20</v>
       </c>
@@ -19442,7 +19453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>19</v>
       </c>
@@ -19497,7 +19508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>19</v>
       </c>
@@ -19541,7 +19552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>19</v>
       </c>
@@ -19588,7 +19599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>19</v>
       </c>
@@ -19632,7 +19643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>19</v>
       </c>
@@ -19679,7 +19690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>19</v>
       </c>
@@ -19726,7 +19737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>19</v>
       </c>
@@ -19770,7 +19781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>18</v>
       </c>
@@ -19817,7 +19828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>18</v>
       </c>
@@ -19867,7 +19878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>17</v>
       </c>
@@ -19917,7 +19928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>17</v>
       </c>
@@ -19961,7 +19972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>17</v>
       </c>
@@ -20011,7 +20022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>16</v>
       </c>
@@ -20058,7 +20069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16</v>
       </c>
@@ -20105,7 +20116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>16</v>
       </c>
@@ -20160,7 +20171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>16</v>
       </c>
@@ -20204,7 +20215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>16</v>
       </c>
@@ -20259,7 +20270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>15</v>
       </c>
@@ -20309,7 +20320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>15</v>
       </c>
@@ -20356,7 +20367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15</v>
       </c>
@@ -20403,7 +20414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>15</v>
       </c>
@@ -20450,7 +20461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14</v>
       </c>
@@ -20494,7 +20505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>14</v>
       </c>
@@ -20541,7 +20552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>14</v>
       </c>
@@ -20596,7 +20607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -20649,7 +20660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>14</v>
       </c>
@@ -20696,7 +20707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>14</v>
       </c>
@@ -20743,7 +20754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>13</v>
       </c>
@@ -20790,7 +20801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13</v>
       </c>
@@ -20840,7 +20851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13</v>
       </c>
@@ -20884,7 +20895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>13</v>
       </c>
@@ -20928,7 +20939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13</v>
       </c>
@@ -20978,7 +20989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>13</v>
       </c>
@@ -21031,7 +21042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>13</v>
       </c>
@@ -21086,7 +21097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13</v>
       </c>
@@ -21136,7 +21147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>12</v>
       </c>
@@ -21186,7 +21197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>12</v>
       </c>
@@ -21233,7 +21244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>12</v>
       </c>
@@ -21290,7 +21301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>12</v>
       </c>
@@ -21337,7 +21348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>11</v>
       </c>
@@ -21384,7 +21395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11</v>
       </c>
@@ -21431,7 +21442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -21478,7 +21489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -21528,7 +21539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11</v>
       </c>
@@ -21572,7 +21583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -21616,7 +21627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11</v>
       </c>
@@ -21660,7 +21671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10</v>
       </c>
@@ -21707,7 +21718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -21757,7 +21768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -21804,7 +21815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -21854,7 +21865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10</v>
       </c>
@@ -21904,7 +21915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10</v>
       </c>
@@ -21948,7 +21959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10</v>
       </c>
@@ -21998,7 +22009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10</v>
       </c>
@@ -22042,7 +22053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>10</v>
       </c>
@@ -22097,7 +22108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>10</v>
       </c>
@@ -22152,7 +22163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>9</v>
       </c>
@@ -22205,7 +22216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>9</v>
       </c>
@@ -22260,7 +22271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9</v>
       </c>
@@ -22310,7 +22321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9</v>
       </c>
@@ -22360,7 +22371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>9</v>
       </c>
@@ -22410,7 +22421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9</v>
       </c>
@@ -22457,7 +22468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9</v>
       </c>
@@ -22480,7 +22491,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>9</v>
       </c>
@@ -22530,7 +22541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>9</v>
       </c>
@@ -22577,7 +22588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -22621,7 +22632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>8</v>
       </c>
@@ -22676,7 +22687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>8</v>
       </c>
@@ -22726,7 +22737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>8</v>
       </c>
@@ -22773,7 +22784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>8</v>
       </c>
@@ -22820,7 +22831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>8</v>
       </c>
@@ -22875,7 +22886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>8</v>
       </c>
@@ -22922,7 +22933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>8</v>
       </c>
@@ -22966,7 +22977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>8</v>
       </c>
@@ -23016,7 +23027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8</v>
       </c>
@@ -23066,7 +23077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>8</v>
       </c>
@@ -23110,7 +23121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -23160,7 +23171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>8</v>
       </c>
@@ -23210,7 +23221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8</v>
       </c>
@@ -23260,7 +23271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>8</v>
       </c>
@@ -23315,7 +23326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8</v>
       </c>
@@ -23365,7 +23376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8</v>
       </c>
@@ -23412,7 +23423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8</v>
       </c>
@@ -23462,7 +23473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>7</v>
       </c>
@@ -23519,7 +23530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -23563,7 +23574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -23607,7 +23618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -23654,7 +23665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>7</v>
       </c>
@@ -23707,7 +23718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -23754,7 +23765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -23804,7 +23815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -23848,7 +23859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>7</v>
       </c>
@@ -23903,7 +23914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -23950,7 +23961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>7</v>
       </c>
@@ -24005,7 +24016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -24055,7 +24066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -24099,7 +24110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -24149,7 +24160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>7</v>
       </c>
@@ -24204,7 +24215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7</v>
       </c>
@@ -24254,7 +24265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -24304,7 +24315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -24351,7 +24362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>6</v>
       </c>
@@ -24398,7 +24409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>6</v>
       </c>
@@ -24445,7 +24456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>6</v>
       </c>
@@ -24498,7 +24509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -24545,7 +24556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -24589,7 +24600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -24639,7 +24650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6</v>
       </c>
@@ -24689,7 +24700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>6</v>
       </c>
@@ -24736,7 +24747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6</v>
       </c>
@@ -24786,7 +24797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6</v>
       </c>
@@ -24830,7 +24841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6</v>
       </c>
@@ -24880,7 +24891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>6</v>
       </c>
@@ -24935,7 +24946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -24979,7 +24990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>5</v>
       </c>
@@ -25029,7 +25040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5</v>
       </c>
@@ -25079,7 +25090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5</v>
       </c>
@@ -25129,7 +25140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -25179,7 +25190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5</v>
       </c>
@@ -25226,7 +25237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5</v>
       </c>
@@ -25273,7 +25284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5</v>
       </c>
@@ -25320,7 +25331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5</v>
       </c>
@@ -25367,7 +25378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>5</v>
       </c>
@@ -25422,7 +25433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>5</v>
       </c>
@@ -25469,7 +25480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>5</v>
       </c>
@@ -25522,7 +25533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>5</v>
       </c>
@@ -25572,7 +25583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>5</v>
       </c>
@@ -25627,7 +25638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5</v>
       </c>
@@ -25677,7 +25688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5</v>
       </c>
@@ -25727,7 +25738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4</v>
       </c>
@@ -25771,7 +25782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>4</v>
       </c>
@@ -25824,7 +25835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>4</v>
       </c>
@@ -25879,7 +25890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4</v>
       </c>
@@ -25926,7 +25937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4</v>
       </c>
@@ -25973,7 +25984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4</v>
       </c>
@@ -26020,7 +26031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -26067,7 +26078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>4</v>
       </c>
@@ -26122,7 +26133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4</v>
       </c>
@@ -26166,7 +26177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -26216,7 +26227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4</v>
       </c>
@@ -26260,7 +26271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -26307,7 +26318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4</v>
       </c>
@@ -26357,7 +26368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4</v>
       </c>
@@ -26401,7 +26412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4</v>
       </c>
@@ -26448,7 +26459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4</v>
       </c>
@@ -26498,7 +26509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4</v>
       </c>
@@ -26545,7 +26556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4</v>
       </c>
@@ -26592,7 +26603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>4</v>
       </c>
@@ -26647,7 +26658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>4</v>
       </c>
@@ -26702,7 +26713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4</v>
       </c>
@@ -26752,7 +26763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>4</v>
       </c>
@@ -26805,7 +26816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -26855,7 +26866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>4</v>
       </c>
@@ -26910,7 +26921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -26960,7 +26971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -27010,7 +27021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -27060,7 +27071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -27110,7 +27121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -27165,7 +27176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="9">
         <v>3</v>
       </c>
@@ -27218,7 +27229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -27262,7 +27273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3</v>
       </c>
@@ -27309,7 +27320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -27359,7 +27370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -27406,7 +27417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -27450,7 +27461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -27497,7 +27508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3</v>
       </c>
@@ -27547,7 +27558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3</v>
       </c>
@@ -27594,7 +27605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -27638,7 +27649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3</v>
       </c>
@@ -27688,7 +27699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -27735,7 +27746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>3</v>
       </c>
@@ -27790,7 +27801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -27834,7 +27845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3</v>
       </c>
@@ -27881,7 +27892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>3</v>
       </c>
@@ -27936,7 +27947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -27980,7 +27991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -28024,7 +28035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3</v>
       </c>
@@ -28071,7 +28082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3</v>
       </c>
@@ -28121,7 +28132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3</v>
       </c>
@@ -28168,7 +28179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -28215,7 +28226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>3</v>
       </c>
@@ -28268,7 +28279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3</v>
       </c>
@@ -28318,7 +28329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3</v>
       </c>
@@ -28362,7 +28373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3</v>
       </c>
@@ -28412,7 +28423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3</v>
       </c>
@@ -28456,7 +28467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -28506,7 +28517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>3</v>
       </c>
@@ -28561,7 +28572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>3</v>
       </c>
@@ -28616,7 +28627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3</v>
       </c>
@@ -28666,7 +28677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -28716,7 +28727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2</v>
       </c>
@@ -28760,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -28807,7 +28818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -28854,7 +28865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>2</v>
       </c>
@@ -28909,7 +28920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -28956,7 +28967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2</v>
       </c>
@@ -29003,7 +29014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -29050,7 +29061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2</v>
       </c>
@@ -29097,7 +29108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -29152,7 +29163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2</v>
       </c>
@@ -29196,7 +29207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2</v>
       </c>
@@ -29243,7 +29254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2</v>
       </c>
@@ -29293,7 +29304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>2</v>
       </c>
@@ -29346,7 +29357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
@@ -29390,7 +29401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2</v>
       </c>
@@ -29440,7 +29451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2</v>
       </c>
@@ -29487,7 +29498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -29534,7 +29545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2</v>
       </c>
@@ -29581,7 +29592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -29628,7 +29639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2</v>
       </c>
@@ -29678,7 +29689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2</v>
       </c>
@@ -29728,7 +29739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2</v>
       </c>
@@ -29778,7 +29789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -29828,7 +29839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>2</v>
       </c>
@@ -29883,7 +29894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2</v>
       </c>
@@ -29930,7 +29941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2</v>
       </c>
@@ -29980,7 +29991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>2</v>
       </c>
@@ -30035,7 +30046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2</v>
       </c>
@@ -30085,7 +30096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2</v>
       </c>
@@ -30135,7 +30146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2</v>
       </c>
@@ -30182,7 +30193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>2</v>
       </c>
@@ -30237,7 +30248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2</v>
       </c>
@@ -30281,7 +30292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2</v>
       </c>
@@ -30331,7 +30342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2</v>
       </c>
@@ -30381,7 +30392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2</v>
       </c>
@@ -30428,7 +30439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2</v>
       </c>
@@ -30475,7 +30486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2</v>
       </c>
@@ -30525,7 +30536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
@@ -30572,7 +30583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2</v>
       </c>
@@ -30616,7 +30627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>2</v>
       </c>
@@ -30669,7 +30680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2</v>
       </c>
@@ -30713,7 +30724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1</v>
       </c>
@@ -30760,7 +30771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1</v>
       </c>
@@ -30810,7 +30821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>1</v>
       </c>
@@ -30865,7 +30876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1</v>
       </c>
@@ -30912,7 +30923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>1</v>
       </c>
@@ -30965,7 +30976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1</v>
       </c>
@@ -31009,7 +31020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>1</v>
       </c>
@@ -31064,7 +31075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1</v>
       </c>
@@ -31114,7 +31125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>1</v>
       </c>
@@ -31167,7 +31178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -31217,7 +31228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1</v>
       </c>
@@ -31264,7 +31275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="9">
         <v>1</v>
       </c>
@@ -31315,7 +31326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>1</v>
       </c>
@@ -31370,7 +31381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>1</v>
       </c>
@@ -31414,7 +31425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1</v>
       </c>
@@ -31461,7 +31472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1</v>
       </c>
@@ -31505,7 +31516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1</v>
       </c>
@@ -31552,7 +31563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1</v>
       </c>
@@ -31602,7 +31613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -31652,7 +31663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -31699,7 +31710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1</v>
       </c>
@@ -31743,7 +31754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>1</v>
       </c>
@@ -31798,7 +31809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -31848,7 +31859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -31892,7 +31903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -31936,7 +31947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1</v>
       </c>
@@ -31986,7 +31997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1</v>
       </c>
@@ -32036,7 +32047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -32086,7 +32097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>1</v>
       </c>
@@ -32139,7 +32150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -32189,7 +32200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>1</v>
       </c>
@@ -32244,7 +32255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1</v>
       </c>
@@ -32291,7 +32302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>1</v>
       </c>
@@ -32344,7 +32355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>1</v>
       </c>
@@ -32397,7 +32408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -32447,7 +32458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -32494,7 +32505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1</v>
       </c>
@@ -32538,7 +32549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1</v>
       </c>
@@ -32582,7 +32593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -32626,7 +32637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -32673,7 +32684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -32717,7 +32728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -32767,7 +32778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1</v>
       </c>
@@ -32817,7 +32828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1</v>
       </c>
@@ -32867,7 +32878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -32884,7 +32895,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -32931,7 +32942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1</v>
       </c>
@@ -32975,7 +32986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1</v>
       </c>
@@ -33022,7 +33033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -33069,7 +33080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1</v>
       </c>
@@ -33116,7 +33127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1</v>
       </c>
@@ -33163,7 +33174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1</v>
       </c>
@@ -33213,7 +33224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1</v>
       </c>
@@ -33260,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1</v>
       </c>
@@ -33304,7 +33315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1</v>
       </c>
@@ -33348,7 +33359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>1</v>
       </c>
@@ -33403,7 +33414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -33447,7 +33458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -33497,7 +33508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -33544,7 +33555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>1</v>
       </c>
@@ -33599,7 +33610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -33649,7 +33660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1</v>
       </c>
@@ -33696,7 +33707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -33746,7 +33757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -33796,7 +33807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1</v>
       </c>
@@ -33846,7 +33857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>1</v>
       </c>
@@ -33901,7 +33912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -33951,7 +33962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -33998,7 +34009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="7">
         <v>1</v>
       </c>
@@ -34053,7 +34064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1</v>
       </c>
@@ -34100,7 +34111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -34144,7 +34155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -34191,7 +34202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -34235,7 +34246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1</v>
       </c>
@@ -34279,7 +34290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1</v>
       </c>
@@ -34329,7 +34340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="9">
         <v>1</v>
       </c>
@@ -34382,7 +34393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1</v>
       </c>
@@ -34432,7 +34443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>1</v>
       </c>
@@ -34487,7 +34498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -34537,7 +34548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -34587,7 +34598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>1</v>
       </c>
@@ -34642,7 +34653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>0</v>
       </c>
@@ -34683,7 +34694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>0</v>
       </c>
@@ -34724,7 +34735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>0</v>
       </c>
@@ -34777,7 +34788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>0</v>
       </c>
@@ -34830,7 +34841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>0</v>
       </c>
@@ -34881,7 +34892,7 @@
       </c>
       <c r="W369" s="3"/>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>0</v>
       </c>
@@ -34934,7 +34945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>0</v>
       </c>
@@ -34975,7 +34986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>0</v>
       </c>
@@ -35019,7 +35030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>0</v>
       </c>
@@ -35066,7 +35077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>0</v>
       </c>
@@ -35107,7 +35118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" s="9">
         <v>0</v>
       </c>
@@ -35156,7 +35167,7 @@
       </c>
       <c r="W375" s="9"/>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>0</v>
       </c>
@@ -35200,7 +35211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>0</v>
       </c>
@@ -35241,7 +35252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>0</v>
       </c>
@@ -35285,7 +35296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>0</v>
       </c>
@@ -35326,7 +35337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>0</v>
       </c>
@@ -35373,7 +35384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>0</v>
       </c>
@@ -35417,7 +35428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>0</v>
       </c>
@@ -35458,7 +35469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>0</v>
       </c>
@@ -35505,7 +35516,7 @@
       </c>
       <c r="W383" s="3"/>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>0</v>
       </c>
@@ -35552,7 +35563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>0</v>
       </c>
@@ -35605,7 +35616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>0</v>
       </c>
@@ -35646,7 +35657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>0</v>
       </c>
@@ -35693,7 +35704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>0</v>
       </c>
@@ -35737,7 +35748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>0</v>
       </c>
@@ -35781,7 +35792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>0</v>
       </c>
@@ -35825,7 +35836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>0</v>
       </c>
@@ -35869,7 +35880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>0</v>
       </c>
@@ -35916,7 +35927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>0</v>
       </c>
@@ -35960,7 +35971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>0</v>
       </c>
@@ -36001,7 +36012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>0</v>
       </c>
@@ -36042,7 +36053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="9">
         <v>0</v>
       </c>
@@ -36095,7 +36106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>0</v>
       </c>
@@ -36148,7 +36159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>0</v>
       </c>
@@ -36192,7 +36203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>0</v>
       </c>
@@ -36233,7 +36244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>0</v>
       </c>
@@ -36277,7 +36288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>0</v>
       </c>
@@ -36318,7 +36329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>0</v>
       </c>
@@ -36359,7 +36370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>0</v>
       </c>
@@ -36406,7 +36417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>0</v>
       </c>
@@ -36459,7 +36470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>0</v>
       </c>
@@ -36512,7 +36523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>0</v>
       </c>
@@ -36553,7 +36564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>0</v>
       </c>
@@ -36597,7 +36608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>0</v>
       </c>
@@ -36638,7 +36649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>0</v>
       </c>
@@ -36679,7 +36690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>0</v>
       </c>
@@ -36723,7 +36734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>0</v>
       </c>
@@ -36767,7 +36778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>0</v>
       </c>
@@ -36811,7 +36822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>0</v>
       </c>
@@ -36849,7 +36860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>0</v>
       </c>
@@ -36893,7 +36904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>0</v>
       </c>
@@ -36937,7 +36948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>0</v>
       </c>
@@ -36978,7 +36989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>0</v>
       </c>
@@ -37025,7 +37036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0</v>
       </c>
@@ -37069,7 +37080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>0</v>
       </c>
@@ -37110,7 +37121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>0</v>
       </c>
@@ -37154,7 +37165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>0</v>
       </c>
@@ -37195,7 +37206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>0</v>
       </c>
@@ -37239,7 +37250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>0</v>
       </c>
@@ -37280,7 +37291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>0</v>
       </c>
@@ -37324,7 +37335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>0</v>
       </c>
@@ -37368,7 +37379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>0</v>
       </c>
@@ -37423,7 +37434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>0</v>
       </c>
@@ -37464,7 +37475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>0</v>
       </c>
@@ -37511,7 +37522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>0</v>
       </c>
@@ -37555,7 +37566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>0</v>
       </c>
@@ -37596,7 +37607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>0</v>
       </c>
@@ -37637,7 +37648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>0</v>
       </c>
@@ -37678,7 +37689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>0</v>
       </c>
@@ -37719,7 +37730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>0</v>
       </c>
@@ -37760,7 +37771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>0</v>
       </c>
@@ -37804,7 +37815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>0</v>
       </c>
@@ -37848,7 +37859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>0</v>
       </c>
@@ -37895,7 +37906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>0</v>
       </c>
@@ -37936,7 +37947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>0</v>
       </c>
@@ -37980,7 +37991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>0</v>
       </c>
@@ -38024,7 +38035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>0</v>
       </c>
@@ -38065,7 +38076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>0</v>
       </c>
@@ -38109,7 +38120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>0</v>
       </c>
@@ -38153,7 +38164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>0</v>
       </c>
@@ -38194,7 +38205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>0</v>
       </c>
@@ -38238,7 +38249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>0</v>
       </c>
@@ -38279,7 +38290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>0</v>
       </c>
@@ -38323,7 +38334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="9">
         <v>0</v>
       </c>
@@ -38368,7 +38379,7 @@
       </c>
       <c r="W448" s="9"/>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>0</v>
       </c>
@@ -38415,7 +38426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>0</v>
       </c>
@@ -38456,7 +38467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>0</v>
       </c>
@@ -38497,7 +38508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0</v>
       </c>
@@ -38538,7 +38549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>0</v>
       </c>
@@ -38591,7 +38602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>0</v>
       </c>
@@ -38635,7 +38646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>0</v>
       </c>
@@ -38679,7 +38690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>0</v>
       </c>
@@ -38726,7 +38737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>0</v>
       </c>
@@ -38779,7 +38790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>0</v>
       </c>
@@ -38823,7 +38834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>0</v>
       </c>
@@ -38870,7 +38881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>0</v>
       </c>
@@ -38914,7 +38925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>0</v>
       </c>
@@ -38965,7 +38976,7 @@
       </c>
       <c r="W461" s="7"/>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>0</v>
       </c>
@@ -39009,7 +39020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" s="7">
         <v>0</v>
       </c>
@@ -39060,7 +39071,7 @@
       </c>
       <c r="W463" s="7"/>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>0</v>
       </c>
@@ -39104,7 +39115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" s="9">
         <v>0</v>
       </c>
@@ -39149,7 +39160,7 @@
       </c>
       <c r="W465" s="9"/>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>0</v>
       </c>
@@ -39193,7 +39204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>0</v>
       </c>
@@ -39234,7 +39245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>0</v>
       </c>
@@ -39275,7 +39286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>0</v>
       </c>
@@ -39319,7 +39330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>0</v>
       </c>
@@ -39363,7 +39374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>0</v>
       </c>
@@ -39404,7 +39415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>0</v>
       </c>
@@ -39455,7 +39466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>0</v>
       </c>
@@ -39502,7 +39513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>0</v>
       </c>
@@ -39546,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>0</v>
       </c>
@@ -39587,7 +39598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>0</v>
       </c>
@@ -39631,7 +39642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>0</v>
       </c>
@@ -39675,7 +39686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>0</v>
       </c>
@@ -39716,7 +39727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>0</v>
       </c>
@@ -39757,7 +39768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>0</v>
       </c>
@@ -39801,7 +39812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>0</v>
       </c>
@@ -39845,7 +39856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>0</v>
       </c>
@@ -39886,7 +39897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>0</v>
       </c>
@@ -39927,7 +39938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>0</v>
       </c>
@@ -39971,7 +39982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>0</v>
       </c>
@@ -40012,7 +40023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>0</v>
       </c>
@@ -40056,7 +40067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>0</v>
       </c>
@@ -40100,7 +40111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>0</v>
       </c>
@@ -40141,7 +40152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>0</v>
       </c>
@@ -40182,7 +40193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>0</v>
       </c>
@@ -40233,7 +40244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>0</v>
       </c>
@@ -40280,7 +40291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>0</v>
       </c>
@@ -40324,7 +40335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>0</v>
       </c>
@@ -40362,7 +40373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>0</v>
       </c>
@@ -40413,7 +40424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>0</v>
       </c>
@@ -40454,7 +40465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>0</v>
       </c>
@@ -40501,7 +40512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>0</v>
       </c>
@@ -40545,7 +40556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>0</v>
       </c>
@@ -40594,7 +40605,7 @@
       </c>
       <c r="W498" s="3"/>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>0</v>
       </c>
@@ -40647,7 +40658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>0</v>
       </c>
@@ -40698,7 +40709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>0</v>
       </c>
@@ -40745,7 +40756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>0</v>
       </c>
@@ -40786,7 +40797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>0</v>
       </c>
@@ -40839,7 +40850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>0</v>
       </c>
@@ -40883,7 +40894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>0</v>
       </c>
@@ -40924,7 +40935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>0</v>
       </c>
@@ -40965,7 +40976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>0</v>
       </c>
@@ -41009,7 +41020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>0</v>
       </c>
@@ -41050,7 +41061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>0</v>
       </c>
@@ -41097,7 +41108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>0</v>
       </c>
@@ -41144,7 +41155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>0</v>
       </c>
@@ -41188,7 +41199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>0</v>
       </c>
@@ -41229,7 +41240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>0</v>
       </c>
@@ -41276,7 +41287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>0</v>
       </c>
@@ -41317,7 +41328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>0</v>
       </c>
@@ -41370,7 +41381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="9">
         <v>0</v>
       </c>
@@ -41423,7 +41434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>0</v>
       </c>
@@ -41464,7 +41475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>0</v>
       </c>
@@ -41505,7 +41516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>0</v>
       </c>
@@ -41558,7 +41569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>0</v>
       </c>
@@ -41599,7 +41610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>0</v>
       </c>
@@ -41640,7 +41651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>0</v>
       </c>
@@ -41681,7 +41692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>0</v>
       </c>
@@ -41725,7 +41736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>0</v>
       </c>
@@ -41766,7 +41777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>0</v>
       </c>
@@ -41804,7 +41815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>0</v>
       </c>
@@ -41851,7 +41862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>0</v>
       </c>
@@ -41892,7 +41903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>0</v>
       </c>
@@ -41933,7 +41944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>0</v>
       </c>
@@ -41986,7 +41997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>0</v>
       </c>
@@ -42030,7 +42041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>0</v>
       </c>
@@ -42074,7 +42085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="7">
         <v>0</v>
       </c>
@@ -42125,7 +42136,7 @@
       </c>
       <c r="W532" s="7"/>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>0</v>
       </c>
@@ -42169,7 +42180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>0</v>
       </c>
@@ -42210,7 +42221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>0</v>
       </c>
@@ -42251,7 +42262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>0</v>
       </c>
@@ -42300,7 +42311,7 @@
       </c>
       <c r="W536" s="3"/>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>0</v>
       </c>
@@ -42341,7 +42352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>0</v>
       </c>
@@ -42385,7 +42396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>0</v>
       </c>
@@ -42429,7 +42440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>0</v>
       </c>
@@ -42473,7 +42484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>0</v>
       </c>
@@ -42514,7 +42525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>0</v>
       </c>
@@ -42552,7 +42563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>0</v>
       </c>
@@ -42596,7 +42607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>0</v>
       </c>
@@ -42640,7 +42651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>0</v>
       </c>
@@ -42687,7 +42698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>0</v>
       </c>
@@ -42728,7 +42739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>0</v>
       </c>
@@ -42781,7 +42792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>0</v>
       </c>
@@ -42822,7 +42833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>0</v>
       </c>
@@ -42875,7 +42886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>0</v>
       </c>
@@ -42928,7 +42939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>0</v>
       </c>
@@ -42969,7 +42980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>0</v>
       </c>
@@ -43016,7 +43027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>0</v>
       </c>
@@ -43063,7 +43074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>0</v>
       </c>
@@ -43107,7 +43118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="9">
         <v>0</v>
       </c>
@@ -43152,7 +43163,7 @@
       </c>
       <c r="W555" s="9"/>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>0</v>
       </c>
@@ -43196,7 +43207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>0</v>
       </c>
@@ -43245,7 +43256,7 @@
       </c>
       <c r="W557" s="3"/>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>0</v>
       </c>
@@ -43289,7 +43300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>0</v>
       </c>
@@ -43330,7 +43341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>0</v>
       </c>
@@ -43374,7 +43385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>0</v>
       </c>
@@ -43427,7 +43438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>0</v>
       </c>
@@ -43468,7 +43479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>0</v>
       </c>
@@ -43512,7 +43523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>0</v>
       </c>
@@ -43565,7 +43576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>0</v>
       </c>
@@ -43609,7 +43620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>0</v>
       </c>
@@ -43653,7 +43664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>0</v>
       </c>
@@ -43697,7 +43708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>0</v>
       </c>
@@ -43748,7 +43759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>0</v>
       </c>
@@ -43789,7 +43800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="12">
         <v>0</v>
       </c>
@@ -43842,7 +43853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>0</v>
       </c>
@@ -43883,7 +43894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>0</v>
       </c>
@@ -43936,7 +43947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>0</v>
       </c>
@@ -43977,7 +43988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>0</v>
       </c>
@@ -44021,7 +44032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>0</v>
       </c>
@@ -44062,7 +44073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>0</v>
       </c>
@@ -44109,7 +44120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>0</v>
       </c>
@@ -44150,7 +44161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>0</v>
       </c>
@@ -44191,7 +44202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>0</v>
       </c>
@@ -44232,7 +44243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>0</v>
       </c>
@@ -44273,7 +44284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>0</v>
       </c>
@@ -44317,7 +44328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>0</v>
       </c>
@@ -44368,7 +44379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>0</v>
       </c>
@@ -44409,7 +44420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>0</v>
       </c>
@@ -44450,7 +44461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>0</v>
       </c>
@@ -44491,7 +44502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>0</v>
       </c>
@@ -44535,7 +44546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>0</v>
       </c>
@@ -44576,7 +44587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>0</v>
       </c>
@@ -44617,7 +44628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>0</v>
       </c>
@@ -44658,7 +44669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>0</v>
       </c>
@@ -44699,7 +44710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>0</v>
       </c>
@@ -44746,7 +44757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>0</v>
       </c>
@@ -44787,7 +44798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>0</v>
       </c>
@@ -44831,7 +44842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>0</v>
       </c>
@@ -44882,7 +44893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>0</v>
       </c>
@@ -44926,7 +44937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>0</v>
       </c>
@@ -44970,7 +44981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="7">
         <v>0</v>
       </c>
@@ -45023,7 +45034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="3">
         <v>0</v>
       </c>
@@ -45076,7 +45087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>0</v>
       </c>
@@ -45129,7 +45140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="3">
         <v>0</v>
       </c>
@@ -45180,7 +45191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>0</v>
       </c>
@@ -45221,7 +45232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>0</v>
       </c>
@@ -45265,7 +45276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>0</v>
       </c>
@@ -45312,7 +45323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>0</v>
       </c>
@@ -45365,7 +45376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" s="7">
         <v>0</v>
       </c>
@@ -45418,7 +45429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>0</v>
       </c>
@@ -45459,7 +45470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>0</v>
       </c>
@@ -45503,7 +45514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>0</v>
       </c>
@@ -45544,7 +45555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>0</v>
       </c>
@@ -45597,7 +45608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>0</v>
       </c>
@@ -45641,7 +45652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>0</v>
       </c>
@@ -45685,7 +45696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>0</v>
       </c>
@@ -45726,7 +45737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>0</v>
       </c>
@@ -45773,7 +45784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>0</v>
       </c>
@@ -45817,7 +45828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>0</v>
       </c>
@@ -45858,7 +45869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>0</v>
       </c>
@@ -45902,7 +45913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>0</v>
       </c>
@@ -45946,7 +45957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>0</v>
       </c>
@@ -45999,7 +46010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>0</v>
       </c>
@@ -46043,7 +46054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>0</v>
       </c>
@@ -46084,7 +46095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>0</v>
       </c>
@@ -46128,7 +46139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>0</v>
       </c>
@@ -46169,7 +46180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>0</v>
       </c>
@@ -46210,7 +46221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>0</v>
       </c>
@@ -46257,7 +46268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>0</v>
       </c>
@@ -46298,7 +46309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>0</v>
       </c>
@@ -46339,7 +46350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>0</v>
       </c>
@@ -46383,7 +46394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>0</v>
       </c>
@@ -46427,7 +46438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" s="7">
         <v>0</v>
       </c>
@@ -46478,7 +46489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>0</v>
       </c>
@@ -46516,7 +46527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>0</v>
       </c>
@@ -46554,7 +46565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>0</v>
       </c>
@@ -46595,7 +46606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>0</v>
       </c>
@@ -46639,7 +46650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>0</v>
       </c>
@@ -46680,7 +46691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>0</v>
       </c>
@@ -46724,7 +46735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>0</v>
       </c>
@@ -46765,7 +46776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>0</v>
       </c>
@@ -46812,7 +46823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>0</v>
       </c>
@@ -46853,7 +46864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>0</v>
       </c>
@@ -46894,7 +46905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>0</v>
       </c>
@@ -46938,7 +46949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>0</v>
       </c>
@@ -46982,7 +46993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>0</v>
       </c>
@@ -47023,7 +47034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>0</v>
       </c>
@@ -47067,7 +47078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>0</v>
       </c>
@@ -47111,7 +47122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>0</v>
       </c>
@@ -47158,7 +47169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>0</v>
       </c>
@@ -47205,7 +47216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>0</v>
       </c>
@@ -47246,7 +47257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>0</v>
       </c>
@@ -47297,7 +47308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>0</v>
       </c>
@@ -47344,7 +47355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650" s="3">
         <v>0</v>
       </c>
@@ -47395,7 +47406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>0</v>
       </c>
@@ -47439,7 +47450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>0</v>
       </c>
@@ -47483,7 +47494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>0</v>
       </c>
@@ -47521,7 +47532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>0</v>
       </c>
@@ -47562,7 +47573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>0</v>
       </c>
@@ -47606,7 +47617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656" s="3">
         <v>0</v>
       </c>
